--- a/excel_report/Book12.xlsx
+++ b/excel_report/Book12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10 HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42367E-99C1-4F1D-AB8A-23C5E2F599A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52F8DA-9849-49D3-B852-70E8A2638D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FFEDB916-1FD7-D94B-88B6-6E1106BD3F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4EE0D8-ED9A-2341-91A5-82D2EE3D2EC5}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,84 +587,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
